--- a/public/static/file/客户跟进日志记录.xlsx
+++ b/public/static/file/客户跟进日志记录.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$40</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>状态</t>
   </si>
@@ -112,7 +112,10 @@
     <t>客户行业</t>
   </si>
   <si>
-    <t>项目</t>
+    <t>项目id</t>
+  </si>
+  <si>
+    <t>项目名</t>
   </si>
   <si>
     <t>沟通时间</t>
@@ -136,10 +139,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -205,6 +208,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -213,8 +299,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,43 +338,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -272,81 +345,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -354,11 +362,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -387,169 +390,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,11 +587,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,26 +619,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,11 +635,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,17 +665,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,10 +690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,133 +702,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -915,9 +918,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -936,6 +936,9 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1268,23 +1271,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="N6" sqref="M1 N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="10" max="12" width="15.5583333333333" customWidth="1"/>
-    <col min="14" max="14" width="13.5583333333333" customWidth="1"/>
-    <col min="15" max="15" width="30.4416666666667" customWidth="1"/>
-    <col min="16" max="16" width="32.1083333333333" customWidth="1"/>
-    <col min="17" max="17" width="26.775" customWidth="1"/>
-    <col min="18" max="18" width="14.775" customWidth="1"/>
+    <col min="14" max="15" width="13.5583333333333" customWidth="1"/>
+    <col min="16" max="16" width="30.4416666666667" customWidth="1"/>
+    <col min="17" max="17" width="32.1083333333333" customWidth="1"/>
+    <col min="18" max="18" width="26.775" customWidth="1"/>
+    <col min="19" max="19" width="14.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" spans="1:18">
+    <row r="1" s="1" customFormat="1" ht="24" spans="1:19">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1327,10 +1330,10 @@
       <c r="N1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="5" t="s">
@@ -1339,8 +1342,11 @@
       <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="12" spans="1:18">
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="12" spans="1:19">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1355,12 +1361,13 @@
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="25"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="12" spans="1:18">
+      <c r="O2" s="25"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="9"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="12" spans="1:19">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1375,12 +1382,13 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="25"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="9"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="12" spans="1:18">
+      <c r="O3" s="25"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="12" spans="1:19">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1395,12 +1403,13 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="25"/>
-      <c r="O4" s="11"/>
+      <c r="O4" s="25"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="9"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="12" spans="1:18">
+      <c r="Q4" s="11"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="12" spans="1:19">
       <c r="A5" s="13"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1415,12 +1424,13 @@
       <c r="L5" s="9"/>
       <c r="M5" s="8"/>
       <c r="N5" s="26"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="9"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="12" spans="1:18">
+      <c r="O5" s="26"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="9"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="12" spans="1:19">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1435,12 +1445,13 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="25"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="9"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="12" spans="1:18">
+      <c r="O6" s="25"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="12" spans="1:19">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1449,18 +1460,19 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="20"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
       <c r="P7" s="20"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="15"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="12" spans="1:18">
+      <c r="Q7" s="20"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="15"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="12" spans="1:19">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1475,12 +1487,13 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="25"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="9"/>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="12" spans="1:18">
+      <c r="O8" s="25"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="9"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="12" spans="1:19">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1495,12 +1508,13 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="25"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="9"/>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="12" spans="1:18">
+      <c r="O9" s="25"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="9"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="12" spans="1:19">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1514,13 +1528,14 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="9"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="9"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1534,13 +1549,14 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="9"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="9"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1554,13 +1570,14 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="17"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="15"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="12"/>
       <c r="R12" s="15"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="S12" s="15"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1575,12 +1592,13 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="25"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="9"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="O13" s="25"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="9"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A14" s="13"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
@@ -1595,12 +1613,13 @@
       <c r="L14" s="21"/>
       <c r="M14" s="17"/>
       <c r="N14" s="25"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="11"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="17"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="S14" s="11"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="11"/>
@@ -1615,12 +1634,13 @@
       <c r="L15" s="21"/>
       <c r="M15" s="17"/>
       <c r="N15" s="25"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="11"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="17"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="S15" s="11"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
@@ -1635,12 +1655,13 @@
       <c r="L16" s="21"/>
       <c r="M16" s="17"/>
       <c r="N16" s="25"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="11"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="17"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="S16" s="11"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1655,12 +1676,13 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="25"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="9"/>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="O17" s="25"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="9"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1675,12 +1697,13 @@
       <c r="L18" s="9"/>
       <c r="M18" s="8"/>
       <c r="N18" s="25"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="9"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="O18" s="25"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="9"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1695,12 +1718,13 @@
       <c r="L19" s="9"/>
       <c r="M19" s="8"/>
       <c r="N19" s="25"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="9"/>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="O19" s="25"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="9"/>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1715,12 +1739,13 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="25"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="9"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="O20" s="25"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="9"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="11"/>
@@ -1735,12 +1760,13 @@
       <c r="L21" s="21"/>
       <c r="M21" s="17"/>
       <c r="N21" s="25"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="11"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="17"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="S21" s="11"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A22" s="13"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
@@ -1755,12 +1781,13 @@
       <c r="L22" s="21"/>
       <c r="M22" s="17"/>
       <c r="N22" s="26"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="11"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="17"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="S22" s="11"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A23" s="13"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1775,12 +1802,13 @@
       <c r="L23" s="21"/>
       <c r="M23" s="17"/>
       <c r="N23" s="25"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="11"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="17"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
-    </row>
-    <row r="24" s="3" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="S23" s="11"/>
+    </row>
+    <row r="24" s="3" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A24" s="13"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -1795,12 +1823,13 @@
       <c r="L24" s="21"/>
       <c r="M24" s="17"/>
       <c r="N24" s="25"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="11"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="17"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
-    </row>
-    <row r="25" s="3" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="S24" s="11"/>
+    </row>
+    <row r="25" s="3" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A25" s="13"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1815,12 +1844,13 @@
       <c r="L25" s="21"/>
       <c r="M25" s="17"/>
       <c r="N25" s="25"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="11"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="17"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
-    </row>
-    <row r="26" s="3" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="S25" s="11"/>
+    </row>
+    <row r="26" s="3" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A26" s="13"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -1835,12 +1865,13 @@
       <c r="L26" s="21"/>
       <c r="M26" s="17"/>
       <c r="N26" s="25"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="11"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="17"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
-    </row>
-    <row r="27" s="3" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="S26" s="11"/>
+    </row>
+    <row r="27" s="3" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1855,12 +1886,13 @@
       <c r="L27" s="21"/>
       <c r="M27" s="17"/>
       <c r="N27" s="26"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="11"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="17"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="S27" s="11"/>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1875,12 +1907,13 @@
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
       <c r="N28" s="25"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="9"/>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="O28" s="25"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="9"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
@@ -1895,12 +1928,13 @@
       <c r="L29" s="21"/>
       <c r="M29" s="17"/>
       <c r="N29" s="25"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="11"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="17"/>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="S29" s="11"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1915,12 +1949,13 @@
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="26"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="9"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="O30" s="26"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="9"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
@@ -1935,12 +1970,13 @@
       <c r="L31" s="21"/>
       <c r="M31" s="17"/>
       <c r="N31" s="26"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="11"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="17"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="S31" s="11"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="11"/>
@@ -1955,12 +1991,13 @@
       <c r="L32" s="21"/>
       <c r="M32" s="17"/>
       <c r="N32" s="25"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="11"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="17"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="S32" s="11"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
@@ -1975,12 +2012,13 @@
       <c r="L33" s="21"/>
       <c r="M33" s="17"/>
       <c r="N33" s="25"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="11"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="17"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="S33" s="11"/>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1995,12 +2033,13 @@
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="25"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="9"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="O34" s="25"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="9"/>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2015,12 +2054,13 @@
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="25"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="9"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="O35" s="25"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="9"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2035,12 +2075,13 @@
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="25"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="9"/>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="O36" s="25"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="9"/>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -2054,13 +2095,14 @@
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>
       <c r="M37" s="15"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="15"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="11"/>
       <c r="R37" s="15"/>
-    </row>
-    <row r="38" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="S37" s="15"/>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2074,13 +2116,14 @@
       <c r="K38" s="19"/>
       <c r="L38" s="19"/>
       <c r="M38" s="15"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="15"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="11"/>
       <c r="R38" s="15"/>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="S38" s="15"/>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="12" customHeight="1" spans="1:19">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -2095,12 +2138,13 @@
       <c r="L39" s="17"/>
       <c r="M39" s="8"/>
       <c r="N39" s="26"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="9"/>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="12" spans="1:18">
+      <c r="O39" s="26"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="9"/>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="12" spans="1:19">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -2114,25 +2158,26 @@
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="9"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A2:R40">
+  <sortState ref="A2:S40">
     <sortCondition ref="J2:J40"/>
   </sortState>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:C2 A22 C22 A23:C23 A4:C8">
       <formula1>"前期咨询,初步报价,深入沟通,价格谈判,合同签订,安装验收,请款阶段,售后跟进,pass"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14 B14 C14 A15 B15 C15 A16 B16 C16 A21 B21 C21 B22 B29 A30:C30 B31 B32 A33 B33 C33 A40:C40 A9:C13 A24:C27 A17:C20 A34:C36">
-      <formula1>"前期咨询,项目暂停,初步报价,深入沟通,价格谈判,合同签订,安装验收,请款阶段,售后跟进,潜代,pass"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:C3">
       <formula1>"前期咨询,想做代理,初步报价,深入沟通,价格谈判,合同签订,安装验收,请款阶段,售后跟进,pass"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14 B14 C14 A15 B15 C15 A16 B16 C16 A21 B21 C21 B22 B29 A30:C30 B31 B32 A33 B33 C33 A40:C40 A9:C13 A17:C20 A24:C27 A34:C36">
+      <formula1>"前期咨询,项目暂停,初步报价,深入沟通,价格谈判,合同签订,安装验收,请款阶段,售后跟进,潜代,pass"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
